--- a/biology/Mycologie/Discinaceae/Discinaceae.xlsx
+++ b/biology/Mycologie/Discinaceae/Discinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Discinaceae ou Discinacées sont une famille de champignons ascomycètes dont les plus connus sont les Gyromitres. Créée en 1961 par Benedix elle est modifiée par  une étude moléculaire de son acide ribonucléique ribosomique par le mycologue Kerry O'Donnell en 1997[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Discinaceae ou Discinacées sont une famille de champignons ascomycètes dont les plus connus sont les Gyromitres. Créée en 1961 par Benedix elle est modifiée par  une étude moléculaire de son acide ribonucléique ribosomique par le mycologue Kerry O'Donnell en 1997. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, la famille comporte cinq genres et 58 espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, la famille comporte cinq genres et 58 espèces.
 </t>
         </is>
       </c>
@@ -544,66 +558,209 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genre Discina
-Discina ancilis
-Discina melaleuca
-Genre Gymnohydnotrya
-Gymnohydnotrya australiana (B.C. Zhang &amp; Minter 1989)[3],[réf. incomplète]
-Gymnohydnotrya echinulata ((G.W. Beaton) B.C. Zhang &amp; Minter 1989),[4][réf. incomplète]
-Gymnohydnotrya ellipsospora((J.W. Cribb) B.C. Zhang &amp; Minter 1989),[4][réf. incomplète]
-Genre Gyromitra
-Gyromitra ambigua
+          <t>Genre Discina</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Discina ancilis
+Discina melaleuca</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Discinaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Discinaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genres et espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genre Gymnohydnotrya</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gymnohydnotrya australiana (B.C. Zhang &amp; Minter 1989),[réf. incomplète]
+Gymnohydnotrya echinulata ((G.W. Beaton) B.C. Zhang &amp; Minter 1989),[réf. incomplète]
+Gymnohydnotrya ellipsospora((J.W. Cribb) B.C. Zhang &amp; Minter 1989),[réf. incomplète]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Discinaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Discinaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genres et espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genre Gyromitra</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyromitra ambigua
 Gyromitra bubakii
 Gyromitra esculenta
 Gyromitra gigas
 Gyromitra infula
 Gyromitra leucoxantha
-Gyromitra tasmanica 
-Genre Hydnotrya
-Hydnotrya cerebriformis
+Gyromitra tasmanica </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Discinaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Discinaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genres et espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genre Hydnotrya</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hydnotrya cerebriformis
 Hydnotrya confusa
 Hydnotrya cubispora
 Hydnotrya michaelis
-Hydnotrya tulasnei
-Genre Pseudorhizina
-Pseudorhizina californica
+Hydnotrya tulasnei</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Discinaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Discinaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Genres et espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genre Pseudorhizina</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pseudorhizina californica
 Pseudorhizina korshinskii</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Discinaceae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Discinaceae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 janvier 2023)[5] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 janvier 2023) :
 genre Discina
 Discina accumbens
 Discina macrospora
 Discina microspora
 Discina repanda
-Selon NCBI  (29 févr. 2012)[6] :
+Selon NCBI  (29 févr. 2012) :
 genre Gyromitra
 Gyromitra californica
 Gyromitra esculenta
